--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="H2">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="I2">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="J2">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N2">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O2">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P2">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q2">
-        <v>42.0135541528</v>
+        <v>35.399263866785</v>
       </c>
       <c r="R2">
-        <v>378.1219873752</v>
+        <v>318.593374801065</v>
       </c>
       <c r="S2">
-        <v>0.01490532076378785</v>
+        <v>0.01241188735432275</v>
       </c>
       <c r="T2">
-        <v>0.01490532076378785</v>
+        <v>0.01241188735432275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="H3">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="I3">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="J3">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>233.448043</v>
       </c>
       <c r="O3">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P3">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q3">
-        <v>701.3127827464214</v>
+        <v>708.2787945335269</v>
       </c>
       <c r="R3">
-        <v>6311.815044717791</v>
+        <v>6374.509150801742</v>
       </c>
       <c r="S3">
-        <v>0.2488076096719232</v>
+        <v>0.2483406617235981</v>
       </c>
       <c r="T3">
-        <v>0.2488076096719232</v>
+        <v>0.2483406617235981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="H4">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="I4">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="J4">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N4">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O4">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P4">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q4">
-        <v>4.731490137760001</v>
+        <v>3.274259690877</v>
       </c>
       <c r="R4">
-        <v>42.58341123984</v>
+        <v>29.468337217893</v>
       </c>
       <c r="S4">
-        <v>0.001678610144181564</v>
+        <v>0.001148039196659597</v>
       </c>
       <c r="T4">
-        <v>0.001678610144181564</v>
+        <v>0.001148039196659597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="H5">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="I5">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="J5">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N5">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O5">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P5">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q5">
-        <v>61.32288321271467</v>
+        <v>69.00990323238901</v>
       </c>
       <c r="R5">
-        <v>551.905948914432</v>
+        <v>621.089129091501</v>
       </c>
       <c r="S5">
-        <v>0.02175577055731899</v>
+        <v>0.02419663720908097</v>
       </c>
       <c r="T5">
-        <v>0.02175577055731899</v>
+        <v>0.02419663720908097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="H6">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="I6">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="J6">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N6">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O6">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P6">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q6">
-        <v>4.451656631509334</v>
+        <v>3.316762842778</v>
       </c>
       <c r="R6">
-        <v>40.06490968358401</v>
+        <v>29.850865585002</v>
       </c>
       <c r="S6">
-        <v>0.001579332464508191</v>
+        <v>0.001162941888862015</v>
       </c>
       <c r="T6">
-        <v>0.00157933246450819</v>
+        <v>0.001162941888862015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>29.048748</v>
       </c>
       <c r="I7">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="J7">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N7">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O7">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P7">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q7">
-        <v>45.1390915901</v>
+        <v>37.65868393984667</v>
       </c>
       <c r="R7">
-        <v>406.2518243109</v>
+        <v>338.92815545862</v>
       </c>
       <c r="S7">
-        <v>0.01601418048778906</v>
+        <v>0.01320409782340119</v>
       </c>
       <c r="T7">
-        <v>0.01601418048778907</v>
+        <v>0.01320409782340119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>29.048748</v>
       </c>
       <c r="I8">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="J8">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>233.448043</v>
       </c>
       <c r="O8">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P8">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q8">
         <v>753.4859302444627</v>
@@ -948,10 +948,10 @@
         <v>6781.373372200164</v>
       </c>
       <c r="S8">
-        <v>0.2673172909972983</v>
+        <v>0.2641914398122973</v>
       </c>
       <c r="T8">
-        <v>0.2673172909972984</v>
+        <v>0.2641914398122973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>29.048748</v>
       </c>
       <c r="I9">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="J9">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N9">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O9">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P9">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q9">
-        <v>5.08348248542</v>
+        <v>3.483245055596</v>
       </c>
       <c r="R9">
-        <v>45.75134236878001</v>
+        <v>31.349205500364</v>
       </c>
       <c r="S9">
-        <v>0.001803487911703676</v>
+        <v>0.001221314810959253</v>
       </c>
       <c r="T9">
-        <v>0.001803487911703676</v>
+        <v>0.001221314810959253</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>29.048748</v>
       </c>
       <c r="I10">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="J10">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N10">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O10">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P10">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q10">
-        <v>65.88491018494933</v>
+        <v>73.414581284172</v>
       </c>
       <c r="R10">
-        <v>592.964191664544</v>
+        <v>660.7312315575481</v>
       </c>
       <c r="S10">
-        <v>0.02337425955986575</v>
+        <v>0.02574102999692325</v>
       </c>
       <c r="T10">
-        <v>0.02337425955986575</v>
+        <v>0.02574102999692325</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>29.048748</v>
       </c>
       <c r="I11">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="J11">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N11">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O11">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P11">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q11">
-        <v>4.782831171258668</v>
+        <v>3.528461045677334</v>
       </c>
       <c r="R11">
-        <v>43.04548054132801</v>
+        <v>31.756149411096</v>
       </c>
       <c r="S11">
-        <v>0.001696824613013666</v>
+        <v>0.001237168693616691</v>
       </c>
       <c r="T11">
-        <v>0.001696824613013666</v>
+        <v>0.001237168693616691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="H12">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="I12">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="J12">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N12">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O12">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P12">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q12">
-        <v>15.0251872006</v>
+        <v>15.18764472897389</v>
       </c>
       <c r="R12">
-        <v>135.2266848054</v>
+        <v>136.688802560765</v>
       </c>
       <c r="S12">
-        <v>0.005330547231171991</v>
+        <v>0.005325176711665274</v>
       </c>
       <c r="T12">
-        <v>0.005330547231171992</v>
+        <v>0.005325176711665274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="H13">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="I13">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="J13">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>233.448043</v>
       </c>
       <c r="O13">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P13">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q13">
-        <v>250.8084845337093</v>
+        <v>303.8788247383425</v>
       </c>
       <c r="R13">
-        <v>2257.276360803384</v>
+        <v>2734.909422645082</v>
       </c>
       <c r="S13">
-        <v>0.08898035378435878</v>
+        <v>0.106547688568046</v>
       </c>
       <c r="T13">
-        <v>0.08898035378435878</v>
+        <v>0.106547688568046</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="H14">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="I14">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="J14">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N14">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O14">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P14">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q14">
-        <v>1.69210928452</v>
+        <v>1.404783249803667</v>
       </c>
       <c r="R14">
-        <v>15.22898356068</v>
+        <v>12.643049248233</v>
       </c>
       <c r="S14">
-        <v>0.0006003165445471664</v>
+        <v>0.0004925529389373176</v>
       </c>
       <c r="T14">
-        <v>0.0006003165445471665</v>
+        <v>0.0004925529389373176</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="H15">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="I15">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="J15">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N15">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O15">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P15">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q15">
-        <v>21.93072732196266</v>
+        <v>29.607900803209</v>
       </c>
       <c r="R15">
-        <v>197.376545897664</v>
+        <v>266.471107228881</v>
       </c>
       <c r="S15">
-        <v>0.007780453996540406</v>
+        <v>0.01038128733270656</v>
       </c>
       <c r="T15">
-        <v>0.007780453996540406</v>
+        <v>0.01038128733270656</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="H16">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="I16">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="J16">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N16">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O16">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P16">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q16">
-        <v>1.592033228085334</v>
+        <v>1.423018735529111</v>
       </c>
       <c r="R16">
-        <v>14.328299052768</v>
+        <v>12.807168619762</v>
       </c>
       <c r="S16">
-        <v>0.0005648121519288089</v>
+        <v>0.0004989467666600445</v>
       </c>
       <c r="T16">
-        <v>0.0005648121519288089</v>
+        <v>0.0004989467666600445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="H17">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="I17">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="J17">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N17">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O17">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P17">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q17">
-        <v>28.78982376039167</v>
+        <v>24.44447559821944</v>
       </c>
       <c r="R17">
-        <v>259.108413843525</v>
+        <v>220.000280383975</v>
       </c>
       <c r="S17">
-        <v>0.01021388374620431</v>
+        <v>0.008570858385709878</v>
       </c>
       <c r="T17">
-        <v>0.01021388374620431</v>
+        <v>0.008570858385709878</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="H18">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="I18">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="J18">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>233.448043</v>
       </c>
       <c r="O18">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P18">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q18">
-        <v>480.5751815889566</v>
+        <v>489.0921962350827</v>
       </c>
       <c r="R18">
-        <v>4325.176634300609</v>
+        <v>4401.829766115745</v>
       </c>
       <c r="S18">
-        <v>0.1704956264030236</v>
+        <v>0.1714882340037626</v>
       </c>
       <c r="T18">
-        <v>0.1704956264030236</v>
+        <v>0.1714882340037626</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="H19">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="I19">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="J19">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N19">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O19">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P19">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q19">
-        <v>3.242257646061667</v>
+        <v>2.260995070888333</v>
       </c>
       <c r="R19">
-        <v>29.180318814555</v>
+        <v>20.348955637995</v>
       </c>
       <c r="S19">
-        <v>0.001150269030742597</v>
+        <v>0.0007927627036017714</v>
       </c>
       <c r="T19">
-        <v>0.001150269030742597</v>
+        <v>0.0007927627036017714</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="H20">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="I20">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="J20">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N20">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O20">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P20">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q20">
-        <v>42.02155794180711</v>
+        <v>47.653841106635</v>
       </c>
       <c r="R20">
-        <v>378.194021476264</v>
+        <v>428.884569959715</v>
       </c>
       <c r="S20">
-        <v>0.01490816030081066</v>
+        <v>0.01670865558227968</v>
       </c>
       <c r="T20">
-        <v>0.01490816030081066</v>
+        <v>0.01670865558227968</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="H21">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="I21">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="J21">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N21">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O21">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P21">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q21">
-        <v>3.050501497607556</v>
+        <v>2.290345038825556</v>
       </c>
       <c r="R21">
-        <v>27.45451347846801</v>
+        <v>20.61310534943</v>
       </c>
       <c r="S21">
-        <v>0.001082238916205226</v>
+        <v>0.0008030535530742541</v>
       </c>
       <c r="T21">
-        <v>0.001082238916205226</v>
+        <v>0.0008030535530742541</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="H22">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="I22">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="J22">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N22">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O22">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P22">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q22">
-        <v>14.54559980995833</v>
+        <v>10.54060526781889</v>
       </c>
       <c r="R22">
-        <v>130.910398289625</v>
+        <v>94.86544741037001</v>
       </c>
       <c r="S22">
-        <v>0.005160402047410964</v>
+        <v>0.003695805814575292</v>
       </c>
       <c r="T22">
-        <v>0.005160402047410964</v>
+        <v>0.003695805814575292</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="H23">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="I23">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="J23">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>233.448043</v>
       </c>
       <c r="O23">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P23">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q23">
-        <v>242.8029545497961</v>
+        <v>210.8995040360016</v>
       </c>
       <c r="R23">
-        <v>2185.226590948165</v>
+        <v>1898.095536324014</v>
       </c>
       <c r="S23">
-        <v>0.0861401991080757</v>
+        <v>0.073946760504066</v>
       </c>
       <c r="T23">
-        <v>0.0861401991080757</v>
+        <v>0.07394676050406598</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="H24">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="I24">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="J24">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N24">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O24">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P24">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q24">
-        <v>1.638099023908334</v>
+        <v>0.9749547074126668</v>
       </c>
       <c r="R24">
-        <v>14.742891215175</v>
+        <v>8.774592366714002</v>
       </c>
       <c r="S24">
-        <v>0.0005811551030746171</v>
+        <v>0.0003418440578174583</v>
       </c>
       <c r="T24">
-        <v>0.0005811551030746171</v>
+        <v>0.0003418440578174583</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="H25">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="I25">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="J25">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N25">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O25">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P25">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q25">
-        <v>21.23072271298222</v>
+        <v>20.548623617722</v>
       </c>
       <c r="R25">
-        <v>191.07650441684</v>
+        <v>184.937612559498</v>
       </c>
       <c r="S25">
-        <v>0.007532110493035884</v>
+        <v>0.007204873033217263</v>
       </c>
       <c r="T25">
-        <v>0.007532110493035883</v>
+        <v>0.007204873033217263</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="H26">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="I26">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="J26">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N26">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O26">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P26">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q26">
-        <v>1.541217284731112</v>
+        <v>0.9876105905551111</v>
       </c>
       <c r="R26">
-        <v>13.87095556258</v>
+        <v>8.888495314996002</v>
       </c>
       <c r="S26">
-        <v>0.0005467839714788892</v>
+        <v>0.0003462815341594701</v>
       </c>
       <c r="T26">
-        <v>0.0005467839714788892</v>
+        <v>0.0003462815341594701</v>
       </c>
     </row>
   </sheetData>
